--- a/DB/role_user.xlsx
+++ b/DB/role_user.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanpd1.HOANPD1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source Code\Caka-ICT\Java\Caka-ICT_Java_Library\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="15240" windowHeight="7200"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="role_user" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>user_id</t>
   </si>
@@ -35,29 +35,70 @@
   <si>
     <t>is_active</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -65,12 +106,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,16 +544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>110</v>
       </c>
@@ -384,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>111</v>
       </c>
@@ -395,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>112</v>
       </c>
@@ -406,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>113</v>
       </c>
@@ -417,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>113</v>
       </c>
@@ -428,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>113</v>
       </c>
@@ -439,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>115</v>
       </c>
@@ -450,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>116</v>
       </c>
@@ -461,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>117</v>
       </c>
@@ -472,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>119</v>
       </c>
@@ -483,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>121</v>
       </c>
@@ -494,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>121</v>
       </c>
@@ -505,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>121</v>
       </c>
@@ -516,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>122</v>
       </c>
@@ -527,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>123</v>
       </c>
@@ -538,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>124</v>
       </c>
@@ -549,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>125</v>
       </c>
@@ -560,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>126</v>
       </c>
@@ -571,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>127</v>
       </c>
@@ -582,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>128</v>
       </c>
@@ -593,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>129</v>
       </c>
@@ -604,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130</v>
       </c>
@@ -615,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>131</v>
       </c>
@@ -626,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>132</v>
       </c>
@@ -637,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>133</v>
       </c>
@@ -648,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>134</v>
       </c>
@@ -659,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>135</v>
       </c>
@@ -670,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>136</v>
       </c>
@@ -681,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>137</v>
       </c>
@@ -692,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>138</v>
       </c>
@@ -703,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>146</v>
       </c>
@@ -714,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>152</v>
       </c>
@@ -725,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>153</v>
       </c>
@@ -736,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>153</v>
       </c>
@@ -747,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>153</v>
       </c>
@@ -758,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>153</v>
       </c>
@@ -769,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>153</v>
       </c>
@@ -780,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>153</v>
       </c>
@@ -791,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>153</v>
       </c>
@@ -802,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>153</v>
       </c>
@@ -813,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>153</v>
       </c>
@@ -824,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>165</v>
       </c>
@@ -835,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>166</v>
       </c>
@@ -846,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>170</v>
       </c>
@@ -857,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>170</v>
       </c>
@@ -868,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>171</v>
       </c>
@@ -879,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>186</v>
       </c>
@@ -890,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>186</v>
       </c>
@@ -901,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>186</v>
       </c>
@@ -912,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>186</v>
       </c>
@@ -923,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>193</v>
       </c>
@@ -934,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>195</v>
       </c>
@@ -945,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>200</v>
       </c>
@@ -956,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>201</v>
       </c>
@@ -967,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>203</v>
       </c>
@@ -978,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>204</v>
       </c>
@@ -989,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>208</v>
       </c>
@@ -1000,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>208</v>
       </c>
@@ -1011,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>208</v>
       </c>
@@ -1022,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>208</v>
       </c>
@@ -1033,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>208</v>
       </c>
@@ -1044,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>209</v>
       </c>
@@ -1055,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>210</v>
       </c>
@@ -1066,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>210</v>
       </c>
@@ -1077,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>210</v>
       </c>
@@ -1088,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>210</v>
       </c>
@@ -1099,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>210</v>
       </c>
@@ -1110,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>213</v>
       </c>
@@ -1121,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>213</v>
       </c>
@@ -1132,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>213</v>
       </c>
@@ -1143,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>213</v>
       </c>
@@ -1154,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>213</v>
       </c>
@@ -1165,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>213</v>
       </c>
@@ -1176,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>213</v>
       </c>
@@ -1187,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>213</v>
       </c>
@@ -1198,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>213</v>
       </c>
@@ -1209,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>214</v>
       </c>
@@ -1220,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>215</v>
       </c>
@@ -1231,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>216</v>
       </c>
@@ -1242,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>217</v>
       </c>
@@ -1253,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>220</v>
       </c>
@@ -1271,12 +1464,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>